--- a/case4_golf/case4_golf_v1.0_211229.xlsx
+++ b/case4_golf/case4_golf_v1.0_211229.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>CASH FLOW</t>
   </si>
   <si>
-    <t>Written at: 2021.12.29 22:18:32</t>
+    <t>Written at: 2021.12.29 23:03:03</t>
   </si>
   <si>
     <t>case4_golf/case4_golf_v1.0_211229.xlsx</t>
@@ -67,7 +67,13 @@
     <t>조달비용</t>
   </si>
   <si>
-    <t>arngfee</t>
+    <t>Loan_arngfee</t>
+  </si>
+  <si>
+    <t>Mrtg_arngfee</t>
+  </si>
+  <si>
+    <t>Fund_arngfee</t>
   </si>
   <si>
     <t>금융비용</t>
@@ -480,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK72"/>
+  <dimension ref="A1:AM72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,22 +495,22 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:39">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -520,20 +526,14 @@
       <c r="P6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>25</v>
+      <c r="S6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AD6" s="1" t="s">
         <v>30</v>
@@ -557,10 +557,16 @@
         <v>36</v>
       </c>
       <c r="AK6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL6" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AM6" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:39">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -607,10 +613,10 @@
         <v>17</v>
       </c>
       <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>21</v>
@@ -622,10 +628,10 @@
         <v>23</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>21</v>
@@ -634,10 +640,10 @@
         <v>22</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>28</v>
@@ -661,16 +667,22 @@
         <v>34</v>
       </c>
       <c r="AI7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AJ7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK7" s="1" t="s">
+      <c r="AL7" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AM7" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:39">
       <c r="A8" s="2">
         <v>44592</v>
       </c>
@@ -782,8 +794,14 @@
       <c r="AK8" s="3">
         <v>0</v>
       </c>
+      <c r="AL8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:39">
       <c r="A9" s="2">
         <v>44620</v>
       </c>
@@ -895,8 +913,14 @@
       <c r="AK9" s="3">
         <v>0</v>
       </c>
+      <c r="AL9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:39">
       <c r="A10" s="2">
         <v>44651</v>
       </c>
@@ -943,29 +967,29 @@
         <v>90000</v>
       </c>
       <c r="P10" s="3">
-        <v>1200</v>
+        <v>1950</v>
       </c>
       <c r="Q10" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
         <v>1200</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>83.33333333333334</v>
       </c>
-      <c r="V10" s="3">
-        <v>1200</v>
-      </c>
-      <c r="W10" s="3">
-        <v>900</v>
-      </c>
       <c r="X10" s="3">
         <v>0</v>
       </c>
@@ -973,23 +997,23 @@
         <v>0</v>
       </c>
       <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
         <v>400</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
         <v>52567</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>10802</v>
       </c>
-      <c r="AD10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="3">
-        <v>0</v>
-      </c>
       <c r="AF10" s="3">
         <v>0</v>
       </c>
@@ -1003,18 +1027,24 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="3">
-        <v>72302.33333333333</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="3">
-        <v>17697.66666666667</v>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="3">
+        <v>70202.33333333333</v>
+      </c>
+      <c r="AM10" s="3">
+        <v>19797.66666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:39">
       <c r="A11" s="2">
         <v>44681</v>
       </c>
       <c r="B11" s="3">
-        <v>17697.66666666667</v>
+        <v>19797.66666666667</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -1065,20 +1095,20 @@
         <v>0</v>
       </c>
       <c r="S11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3">
         <v>83.33333333333333</v>
       </c>
-      <c r="T11" s="3">
+      <c r="V11" s="3">
         <v>162.5</v>
       </c>
-      <c r="U11" s="3">
+      <c r="W11" s="3">
         <v>66.66666666666667</v>
       </c>
-      <c r="V11" s="3">
-        <v>0</v>
-      </c>
-      <c r="W11" s="3">
-        <v>0</v>
-      </c>
       <c r="X11" s="3">
         <v>0</v>
       </c>
@@ -1089,14 +1119,14 @@
         <v>0</v>
       </c>
       <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>0</v>
-      </c>
       <c r="AD11" s="3">
         <v>0</v>
       </c>
@@ -1116,18 +1146,24 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="3">
         <v>579.1666666666667</v>
       </c>
-      <c r="AK11" s="3">
-        <v>17118.5</v>
+      <c r="AM11" s="3">
+        <v>19218.5</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:39">
       <c r="A12" s="2">
         <v>44712</v>
       </c>
       <c r="B12" s="3">
-        <v>17118.5</v>
+        <v>19218.5</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -1178,20 +1214,20 @@
         <v>0</v>
       </c>
       <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
         <v>83.33333333333333</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>162.5</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>66.66666666666667</v>
       </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
       <c r="X12" s="3">
         <v>0</v>
       </c>
@@ -1202,45 +1238,51 @@
         <v>0</v>
       </c>
       <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>0</v>
-      </c>
       <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="3">
         <v>2916.666666666667</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AG12" s="3">
         <v>170.8333333333333</v>
       </c>
-      <c r="AF12" s="3">
+      <c r="AH12" s="3">
         <v>314.625</v>
       </c>
-      <c r="AG12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="3">
-        <v>0</v>
-      </c>
       <c r="AI12" s="3">
         <v>0</v>
       </c>
       <c r="AJ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="3">
         <v>3981.291666666667</v>
       </c>
-      <c r="AK12" s="3">
-        <v>13137.20833333334</v>
+      <c r="AM12" s="3">
+        <v>15237.20833333334</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:39">
       <c r="A13" s="2">
         <v>44742</v>
       </c>
       <c r="B13" s="3">
-        <v>13137.20833333334</v>
+        <v>15237.20833333334</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -1291,20 +1333,20 @@
         <v>0</v>
       </c>
       <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
         <v>83.33333333333333</v>
       </c>
-      <c r="T13" s="3">
+      <c r="V13" s="3">
         <v>162.5</v>
       </c>
-      <c r="U13" s="3">
+      <c r="W13" s="3">
         <v>66.66666666666667</v>
       </c>
-      <c r="V13" s="3">
-        <v>0</v>
-      </c>
-      <c r="W13" s="3">
-        <v>0</v>
-      </c>
       <c r="X13" s="3">
         <v>0</v>
       </c>
@@ -1315,45 +1357,51 @@
         <v>0</v>
       </c>
       <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>0</v>
-      </c>
       <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
         <v>2916.666666666667</v>
       </c>
-      <c r="AE13" s="3">
+      <c r="AG13" s="3">
         <v>170.8333333333333</v>
       </c>
-      <c r="AF13" s="3">
+      <c r="AH13" s="3">
         <v>314.625</v>
       </c>
-      <c r="AG13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="3">
-        <v>0</v>
-      </c>
       <c r="AI13" s="3">
         <v>0</v>
       </c>
       <c r="AJ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="3">
         <v>3981.291666666667</v>
       </c>
-      <c r="AK13" s="3">
-        <v>9155.916666666672</v>
+      <c r="AM13" s="3">
+        <v>11255.91666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:39">
       <c r="A14" s="2">
         <v>44773</v>
       </c>
       <c r="B14" s="3">
-        <v>9155.916666666672</v>
+        <v>11255.91666666667</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
@@ -1404,20 +1452,20 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>83.33333333333333</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>162.5</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>66.66666666666667</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
@@ -1428,45 +1476,51 @@
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
       <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
         <v>2916.666666666667</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AG14" s="3">
         <v>170.8333333333333</v>
       </c>
-      <c r="AF14" s="3">
+      <c r="AH14" s="3">
         <v>314.625</v>
       </c>
-      <c r="AG14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="3">
-        <v>0</v>
-      </c>
       <c r="AI14" s="3">
         <v>0</v>
       </c>
       <c r="AJ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="3">
         <v>3981.291666666667</v>
       </c>
-      <c r="AK14" s="3">
-        <v>5174.625000000005</v>
+      <c r="AM14" s="3">
+        <v>7274.625000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:39">
       <c r="A15" s="2">
         <v>44804</v>
       </c>
       <c r="B15" s="3">
-        <v>5174.625000000005</v>
+        <v>7274.625000000005</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -1517,20 +1571,20 @@
         <v>0</v>
       </c>
       <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
         <v>83.33333333333333</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>162.5</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>66.66666666666667</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
@@ -1541,45 +1595,51 @@
         <v>0</v>
       </c>
       <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>0</v>
-      </c>
       <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3">
         <v>2916.666666666667</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AG15" s="3">
         <v>170.8333333333333</v>
       </c>
-      <c r="AF15" s="3">
+      <c r="AH15" s="3">
         <v>314.625</v>
       </c>
-      <c r="AG15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="3">
-        <v>0</v>
-      </c>
       <c r="AI15" s="3">
         <v>0</v>
       </c>
       <c r="AJ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="3">
         <v>3981.291666666667</v>
       </c>
-      <c r="AK15" s="3">
-        <v>1193.333333333339</v>
+      <c r="AM15" s="3">
+        <v>3293.333333333339</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:39">
       <c r="A16" s="2">
         <v>44834</v>
       </c>
       <c r="B16" s="3">
-        <v>1193.333333333339</v>
+        <v>3293.333333333339</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -1588,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -1618,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="3">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="P16" s="3">
         <v>0</v>
@@ -1630,20 +1690,20 @@
         <v>0</v>
       </c>
       <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
         <v>83.33333333333333</v>
       </c>
-      <c r="T16" s="3">
+      <c r="V16" s="3">
         <v>162.5</v>
       </c>
-      <c r="U16" s="3">
+      <c r="W16" s="3">
         <v>66.66666666666667</v>
       </c>
-      <c r="V16" s="3">
-        <v>0</v>
-      </c>
-      <c r="W16" s="3">
-        <v>0</v>
-      </c>
       <c r="X16" s="3">
         <v>0</v>
       </c>
@@ -1654,40 +1714,46 @@
         <v>0</v>
       </c>
       <c r="AA16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="3">
-        <v>0</v>
-      </c>
       <c r="AD16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="3">
         <v>2916.666666666667</v>
       </c>
-      <c r="AE16" s="3">
+      <c r="AG16" s="3">
         <v>170.8333333333333</v>
       </c>
-      <c r="AF16" s="3">
+      <c r="AH16" s="3">
         <v>314.625</v>
       </c>
-      <c r="AG16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="3">
-        <v>0</v>
-      </c>
       <c r="AI16" s="3">
         <v>0</v>
       </c>
       <c r="AJ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="3">
         <v>3981.291666666667</v>
       </c>
-      <c r="AK16" s="3">
+      <c r="AM16" s="3">
         <v>12.04166666667243</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:39">
       <c r="A17" s="2">
         <v>44865</v>
       </c>
@@ -1743,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="S17" s="3">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>86.25</v>
+      </c>
+      <c r="V17" s="3">
         <v>162.5</v>
       </c>
-      <c r="U17" s="3">
-        <v>64.33333333333334</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
-        <v>0</v>
+        <v>66.08333333333334</v>
       </c>
       <c r="X17" s="3">
         <v>0</v>
@@ -1767,45 +1833,51 @@
         <v>0</v>
       </c>
       <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>0</v>
-      </c>
       <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="3">
         <v>2916.666666666667</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AG17" s="3">
         <v>170.8333333333333</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AH17" s="3">
         <v>314.625</v>
       </c>
-      <c r="AG17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="3">
-        <v>0</v>
-      </c>
       <c r="AI17" s="3">
         <v>0</v>
       </c>
       <c r="AJ17" s="3">
-        <v>3990.625</v>
+        <v>0</v>
       </c>
       <c r="AK17" s="3">
-        <v>21.41666666667243</v>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>3983.625</v>
+      </c>
+      <c r="AM17" s="3">
+        <v>28.41666666667243</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:39">
       <c r="A18" s="2">
         <v>44895</v>
       </c>
       <c r="B18" s="3">
-        <v>21.41666666667243</v>
+        <v>28.41666666667243</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -1856,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>111.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>102.9166666666667</v>
+      </c>
+      <c r="V18" s="3">
         <v>162.5</v>
       </c>
-      <c r="U18" s="3">
-        <v>61.00000000000001</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
-        <v>0</v>
+        <v>62.75000000000001</v>
       </c>
       <c r="X18" s="3">
         <v>0</v>
@@ -1880,45 +1952,51 @@
         <v>0</v>
       </c>
       <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>0</v>
-      </c>
       <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="3">
         <v>2916.666666666667</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AG18" s="3">
         <v>170.8333333333333</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AH18" s="3">
         <v>314.625</v>
       </c>
-      <c r="AG18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="3">
-        <v>0</v>
-      </c>
       <c r="AI18" s="3">
         <v>0</v>
       </c>
       <c r="AJ18" s="3">
-        <v>4003.958333333333</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="3">
-        <v>17.4583333333394</v>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="3">
+        <v>3996.958333333333</v>
+      </c>
+      <c r="AM18" s="3">
+        <v>31.4583333333394</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:39">
       <c r="A19" s="2">
         <v>44926</v>
       </c>
       <c r="B19" s="3">
-        <v>17.4583333333394</v>
+        <v>31.4583333333394</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -1969,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="S19" s="3">
-        <v>128.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="T19" s="3">
+        <v>0</v>
+      </c>
+      <c r="U19" s="3">
+        <v>119.5833333333333</v>
+      </c>
+      <c r="V19" s="3">
         <v>162.5</v>
       </c>
-      <c r="U19" s="3">
-        <v>57.66666666666667</v>
-      </c>
-      <c r="V19" s="3">
-        <v>0</v>
-      </c>
       <c r="W19" s="3">
-        <v>0</v>
+        <v>59.41666666666667</v>
       </c>
       <c r="X19" s="3">
         <v>0</v>
@@ -1993,45 +2071,51 @@
         <v>0</v>
       </c>
       <c r="AA19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="3">
-        <v>0</v>
-      </c>
       <c r="AD19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="3">
         <v>2916.666666666667</v>
       </c>
-      <c r="AE19" s="3">
+      <c r="AG19" s="3">
         <v>170.8333333333333</v>
       </c>
-      <c r="AF19" s="3">
+      <c r="AH19" s="3">
         <v>314.625</v>
       </c>
-      <c r="AG19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="3">
-        <v>0</v>
-      </c>
       <c r="AI19" s="3">
         <v>0</v>
       </c>
       <c r="AJ19" s="3">
-        <v>4017.291666666667</v>
+        <v>0</v>
       </c>
       <c r="AK19" s="3">
-        <v>0.1666666666728815</v>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>4010.291666666667</v>
+      </c>
+      <c r="AM19" s="3">
+        <v>21.16666666667288</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:39">
       <c r="A20" s="2">
         <v>44957</v>
       </c>
       <c r="B20" s="3">
-        <v>0.1666666666728815</v>
+        <v>21.16666666667288</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -2082,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>136.25</v>
+      </c>
+      <c r="V20" s="3">
         <v>162.5</v>
       </c>
-      <c r="U20" s="3">
-        <v>54.33333333333334</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>56.08333333333334</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
@@ -2106,45 +2190,51 @@
         <v>0</v>
       </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
       <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="3">
         <v>2916.666666666667</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AG20" s="3">
         <v>170.8333333333333</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AH20" s="3">
         <v>314.625</v>
       </c>
-      <c r="AG20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="3">
-        <v>0</v>
-      </c>
       <c r="AI20" s="3">
         <v>0</v>
       </c>
       <c r="AJ20" s="3">
-        <v>4030.625</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="3">
-        <v>69.54166666667334</v>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="3">
+        <v>4023.625</v>
+      </c>
+      <c r="AM20" s="3">
+        <v>97.54166666667334</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:39">
       <c r="A21" s="2">
         <v>44985</v>
       </c>
       <c r="B21" s="3">
-        <v>69.54166666667334</v>
+        <v>97.54166666667334</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -2195,19 +2285,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="3">
-        <v>162.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>153.3333333333333</v>
+      </c>
+      <c r="V21" s="3">
         <v>162.5</v>
       </c>
-      <c r="U21" s="3">
-        <v>50.91666666666667</v>
-      </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
-        <v>0</v>
+        <v>52.66666666666667</v>
       </c>
       <c r="X21" s="3">
         <v>0</v>
@@ -2219,45 +2309,51 @@
         <v>0</v>
       </c>
       <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>0</v>
-      </c>
       <c r="AD21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="3">
         <v>2916.666666666667</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AG21" s="3">
         <v>170.8333333333333</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AH21" s="3">
         <v>314.625</v>
       </c>
-      <c r="AG21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="3">
-        <v>0</v>
-      </c>
       <c r="AI21" s="3">
         <v>0</v>
       </c>
       <c r="AJ21" s="3">
-        <v>4044.291666666667</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="3">
-        <v>25.25000000000682</v>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="3">
+        <v>4037.291666666667</v>
+      </c>
+      <c r="AM21" s="3">
+        <v>60.25000000000682</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:39">
       <c r="A22" s="2">
         <v>45016</v>
       </c>
       <c r="B22" s="3">
-        <v>25.25000000000682</v>
+        <v>60.25000000000682</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -2266,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -2296,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -2308,19 +2404,19 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>178.75</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>170</v>
+      </c>
+      <c r="V22" s="3">
         <v>162.5</v>
       </c>
-      <c r="U22" s="3">
-        <v>47.58333333333334</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
-        <v>0</v>
+        <v>49.33333333333334</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -2332,45 +2428,51 @@
         <v>0</v>
       </c>
       <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>0</v>
-      </c>
       <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3">
         <v>2916.666666666667</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AG22" s="3">
         <v>170.8333333333333</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AH22" s="3">
         <v>314.625</v>
       </c>
-      <c r="AG22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="3">
-        <v>0</v>
-      </c>
       <c r="AI22" s="3">
         <v>0</v>
       </c>
       <c r="AJ22" s="3">
-        <v>4057.625</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="3">
-        <v>67.62500000000728</v>
+        <v>0</v>
+      </c>
+      <c r="AL22" s="3">
+        <v>4050.625</v>
+      </c>
+      <c r="AM22" s="3">
+        <v>9.625000000006821</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:39">
       <c r="A23" s="2">
         <v>45046</v>
       </c>
       <c r="B23" s="3">
-        <v>67.62500000000728</v>
+        <v>9.625000000006821</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -2421,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>195.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>186.6666666666667</v>
+      </c>
+      <c r="V23" s="3">
         <v>162.5</v>
       </c>
-      <c r="U23" s="3">
-        <v>44.16666666666667</v>
-      </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="X23" s="3">
         <v>0</v>
@@ -2445,45 +2547,51 @@
         <v>0</v>
       </c>
       <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>0</v>
-      </c>
       <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="3">
         <v>2916.666666666667</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AG23" s="3">
         <v>170.8333333333333</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AH23" s="3">
         <v>314.625</v>
       </c>
-      <c r="AG23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="3">
-        <v>0</v>
-      </c>
       <c r="AI23" s="3">
         <v>0</v>
       </c>
       <c r="AJ23" s="3">
-        <v>4071.291666666667</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="3">
-        <v>96.33333333334076</v>
+        <v>0</v>
+      </c>
+      <c r="AL23" s="3">
+        <v>4063.958333333333</v>
+      </c>
+      <c r="AM23" s="3">
+        <v>45.66666666667425</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:39">
       <c r="A24" s="2">
         <v>45077</v>
       </c>
       <c r="B24" s="3">
-        <v>96.33333333334076</v>
+        <v>45.66666666667425</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -2492,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -2522,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -2534,19 +2642,19 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>212.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>203.75</v>
+      </c>
+      <c r="V24" s="3">
         <v>162.5</v>
       </c>
-      <c r="U24" s="3">
-        <v>40.75</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
-        <v>0</v>
+        <v>42.58333333333334</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
@@ -2558,45 +2666,51 @@
         <v>0</v>
       </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>0</v>
-      </c>
       <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3">
         <v>2916.666666666667</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AG24" s="3">
         <v>170.8333333333333</v>
       </c>
-      <c r="AF24" s="3">
+      <c r="AH24" s="3">
         <v>314.625</v>
       </c>
-      <c r="AG24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="3">
-        <v>0</v>
-      </c>
       <c r="AI24" s="3">
         <v>0</v>
       </c>
       <c r="AJ24" s="3">
-        <v>4084.958333333333</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="3">
-        <v>11.37500000000819</v>
+        <v>0</v>
+      </c>
+      <c r="AL24" s="3">
+        <v>4077.625</v>
+      </c>
+      <c r="AM24" s="3">
+        <v>68.04166666667425</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:39">
       <c r="A25" s="2">
         <v>45107</v>
       </c>
       <c r="B25" s="3">
-        <v>11.37500000000819</v>
+        <v>68.04166666667425</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -2647,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S25" s="3">
-        <v>229.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>220.8333333333333</v>
+      </c>
+      <c r="V25" s="3">
         <v>162.5</v>
       </c>
-      <c r="U25" s="3">
-        <v>37.41666666666667</v>
-      </c>
-      <c r="V25" s="3">
-        <v>0</v>
-      </c>
       <c r="W25" s="3">
-        <v>0</v>
+        <v>39.16666666666667</v>
       </c>
       <c r="X25" s="3">
         <v>0</v>
@@ -2671,45 +2785,51 @@
         <v>0</v>
       </c>
       <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="3">
-        <v>0</v>
-      </c>
       <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3">
         <v>2916.666666666667</v>
       </c>
-      <c r="AE25" s="3">
+      <c r="AG25" s="3">
         <v>170.8333333333333</v>
       </c>
-      <c r="AF25" s="3">
+      <c r="AH25" s="3">
         <v>314.625</v>
       </c>
-      <c r="AG25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="3">
-        <v>0</v>
-      </c>
       <c r="AI25" s="3">
         <v>0</v>
       </c>
       <c r="AJ25" s="3">
-        <v>4098.291666666667</v>
+        <v>0</v>
       </c>
       <c r="AK25" s="3">
-        <v>13.08333333334122</v>
+        <v>0</v>
+      </c>
+      <c r="AL25" s="3">
+        <v>4091.291666666667</v>
+      </c>
+      <c r="AM25" s="3">
+        <v>76.75000000000773</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:39">
       <c r="A26" s="2">
         <v>45138</v>
       </c>
       <c r="B26" s="3">
-        <v>13.08333333334122</v>
+        <v>76.75000000000773</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
@@ -2760,19 +2880,19 @@
         <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>246.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>237.9166666666667</v>
+      </c>
+      <c r="V26" s="3">
         <v>162.5</v>
       </c>
-      <c r="U26" s="3">
-        <v>34</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>35.75</v>
       </c>
       <c r="X26" s="3">
         <v>0</v>
@@ -2784,45 +2904,51 @@
         <v>0</v>
       </c>
       <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>0</v>
-      </c>
       <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="3">
         <v>2916.666666666667</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AG26" s="3">
         <v>170.8333333333333</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AH26" s="3">
         <v>314.625</v>
       </c>
-      <c r="AG26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="3">
-        <v>0</v>
-      </c>
       <c r="AI26" s="3">
         <v>0</v>
       </c>
       <c r="AJ26" s="3">
-        <v>4111.958333333333</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="3">
-        <v>1.125000000008185</v>
+        <v>0</v>
+      </c>
+      <c r="AL26" s="3">
+        <v>4104.958333333333</v>
+      </c>
+      <c r="AM26" s="3">
+        <v>71.79166666667425</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:39">
       <c r="A27" s="2">
         <v>45169</v>
       </c>
       <c r="B27" s="3">
-        <v>1.125000000008185</v>
+        <v>71.79166666667425</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -2831,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -2861,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -2873,19 +2999,19 @@
         <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>263.75</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>255</v>
+      </c>
+      <c r="V27" s="3">
         <v>162.5</v>
       </c>
-      <c r="U27" s="3">
-        <v>30.58333333333334</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>32.33333333333334</v>
       </c>
       <c r="X27" s="3">
         <v>0</v>
@@ -2897,45 +3023,51 @@
         <v>0</v>
       </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>0</v>
-      </c>
       <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="3">
         <v>2916.666666666667</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AG27" s="3">
         <v>170.8333333333333</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AH27" s="3">
         <v>314.625</v>
       </c>
-      <c r="AG27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="3">
-        <v>0</v>
-      </c>
       <c r="AI27" s="3">
         <v>0</v>
       </c>
       <c r="AJ27" s="3">
-        <v>4125.625</v>
+        <v>0</v>
       </c>
       <c r="AK27" s="3">
-        <v>75.50000000000819</v>
+        <v>0</v>
+      </c>
+      <c r="AL27" s="3">
+        <v>4118.625</v>
+      </c>
+      <c r="AM27" s="3">
+        <v>53.16666666667425</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:39">
       <c r="A28" s="2">
         <v>45199</v>
       </c>
       <c r="B28" s="3">
-        <v>75.50000000000819</v>
+        <v>53.16666666667425</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
@@ -2986,19 +3118,19 @@
         <v>0</v>
       </c>
       <c r="S28" s="3">
-        <v>281.25</v>
+        <v>0</v>
       </c>
       <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>272.0833333333333</v>
+      </c>
+      <c r="V28" s="3">
         <v>162.5</v>
       </c>
-      <c r="U28" s="3">
-        <v>27.08333333333334</v>
-      </c>
-      <c r="V28" s="3">
-        <v>0</v>
-      </c>
       <c r="W28" s="3">
-        <v>0</v>
+        <v>28.91666666666667</v>
       </c>
       <c r="X28" s="3">
         <v>0</v>
@@ -3010,45 +3142,51 @@
         <v>0</v>
       </c>
       <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="3">
-        <v>0</v>
-      </c>
       <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
         <v>2916.666666666667</v>
       </c>
-      <c r="AE28" s="3">
+      <c r="AG28" s="3">
         <v>170.8333333333333</v>
       </c>
-      <c r="AF28" s="3">
+      <c r="AH28" s="3">
         <v>314.625</v>
       </c>
-      <c r="AG28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="3">
-        <v>0</v>
-      </c>
       <c r="AI28" s="3">
         <v>0</v>
       </c>
       <c r="AJ28" s="3">
-        <v>4139.625</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="3">
-        <v>35.87500000000819</v>
+        <v>0</v>
+      </c>
+      <c r="AL28" s="3">
+        <v>4132.291666666667</v>
+      </c>
+      <c r="AM28" s="3">
+        <v>20.87500000000728</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:39">
       <c r="A29" s="2">
         <v>45230</v>
       </c>
       <c r="B29" s="3">
-        <v>35.87500000000819</v>
+        <v>20.87500000000728</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -3099,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
-        <v>298.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>289.1666666666667</v>
+      </c>
+      <c r="V29" s="3">
         <v>162.5</v>
       </c>
-      <c r="U29" s="3">
-        <v>23.66666666666667</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
@@ -3123,45 +3261,51 @@
         <v>0</v>
       </c>
       <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="3">
-        <v>0</v>
-      </c>
       <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3">
         <v>2916.666666666667</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AG29" s="3">
         <v>170.8333333333333</v>
       </c>
-      <c r="AF29" s="3">
+      <c r="AH29" s="3">
         <v>314.625</v>
       </c>
-      <c r="AG29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="3">
-        <v>0</v>
-      </c>
       <c r="AI29" s="3">
         <v>0</v>
       </c>
       <c r="AJ29" s="3">
-        <v>4153.291666666667</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="3">
-        <v>82.58333333334122</v>
+        <v>0</v>
+      </c>
+      <c r="AL29" s="3">
+        <v>4145.958333333333</v>
+      </c>
+      <c r="AM29" s="3">
+        <v>74.91666666667425</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:39">
       <c r="A30" s="2">
         <v>45260</v>
       </c>
       <c r="B30" s="3">
-        <v>82.58333333334122</v>
+        <v>74.91666666667425</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -3212,19 +3356,19 @@
         <v>0</v>
       </c>
       <c r="S30" s="3">
-        <v>315.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>306.6666666666667</v>
+      </c>
+      <c r="V30" s="3">
         <v>162.5</v>
       </c>
-      <c r="U30" s="3">
-        <v>20.16666666666667</v>
-      </c>
-      <c r="V30" s="3">
-        <v>0</v>
-      </c>
       <c r="W30" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="X30" s="3">
         <v>0</v>
@@ -3236,45 +3380,51 @@
         <v>0</v>
       </c>
       <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="3">
-        <v>0</v>
-      </c>
       <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3">
         <v>2916.666666666667</v>
       </c>
-      <c r="AE30" s="3">
+      <c r="AG30" s="3">
         <v>170.8333333333333</v>
       </c>
-      <c r="AF30" s="3">
+      <c r="AH30" s="3">
         <v>314.625</v>
       </c>
-      <c r="AG30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="3">
-        <v>0</v>
-      </c>
       <c r="AI30" s="3">
         <v>0</v>
       </c>
       <c r="AJ30" s="3">
-        <v>4167.291666666667</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="3">
-        <v>15.29166666667425</v>
+        <v>0</v>
+      </c>
+      <c r="AL30" s="3">
+        <v>4159.958333333333</v>
+      </c>
+      <c r="AM30" s="3">
+        <v>14.95833333334122</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:39">
       <c r="A31" s="2">
         <v>45291</v>
       </c>
       <c r="B31" s="3">
-        <v>15.29166666667425</v>
+        <v>14.95833333334122</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -3325,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="S31" s="3">
-        <v>332.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>323.75</v>
+      </c>
+      <c r="V31" s="3">
         <v>162.5</v>
       </c>
-      <c r="U31" s="3">
-        <v>16.75</v>
-      </c>
-      <c r="V31" s="3">
-        <v>0</v>
-      </c>
       <c r="W31" s="3">
-        <v>0</v>
+        <v>18.58333333333334</v>
       </c>
       <c r="X31" s="3">
         <v>0</v>
@@ -3349,45 +3499,51 @@
         <v>0</v>
       </c>
       <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB31" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="3">
-        <v>0</v>
-      </c>
       <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3">
         <v>2916.666666666667</v>
       </c>
-      <c r="AE31" s="3">
+      <c r="AG31" s="3">
         <v>170.8333333333333</v>
       </c>
-      <c r="AF31" s="3">
+      <c r="AH31" s="3">
         <v>314.625</v>
       </c>
-      <c r="AG31" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="3">
-        <v>0</v>
-      </c>
       <c r="AI31" s="3">
         <v>0</v>
       </c>
       <c r="AJ31" s="3">
-        <v>4180.958333333333</v>
+        <v>0</v>
       </c>
       <c r="AK31" s="3">
-        <v>34.33333333334122</v>
+        <v>0</v>
+      </c>
+      <c r="AL31" s="3">
+        <v>4173.625</v>
+      </c>
+      <c r="AM31" s="3">
+        <v>41.33333333334122</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:39">
       <c r="A32" s="2">
         <v>45322</v>
       </c>
       <c r="B32" s="3">
-        <v>34.33333333334122</v>
+        <v>41.33333333334122</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
@@ -3438,19 +3594,19 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>350.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>341.25</v>
+      </c>
+      <c r="V32" s="3">
         <v>162.5</v>
       </c>
-      <c r="U32" s="3">
-        <v>13.25</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>15.08333333333333</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
@@ -3462,45 +3618,51 @@
         <v>0</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
       <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="3">
         <v>2916.666666666667</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AG32" s="3">
         <v>170.8333333333333</v>
       </c>
-      <c r="AF32" s="3">
+      <c r="AH32" s="3">
         <v>314.625</v>
       </c>
-      <c r="AG32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="3">
-        <v>0</v>
-      </c>
       <c r="AI32" s="3">
         <v>0</v>
       </c>
       <c r="AJ32" s="3">
-        <v>4194.958333333333</v>
+        <v>0</v>
       </c>
       <c r="AK32" s="3">
-        <v>39.37500000000819</v>
+        <v>0</v>
+      </c>
+      <c r="AL32" s="3">
+        <v>4187.625</v>
+      </c>
+      <c r="AM32" s="3">
+        <v>53.70833333334122</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:39">
       <c r="A33" s="2">
         <v>45351</v>
       </c>
       <c r="B33" s="3">
-        <v>39.37500000000819</v>
+        <v>53.70833333334122</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -3551,19 +3713,19 @@
         <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>367.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>358.75</v>
+      </c>
+      <c r="V33" s="3">
         <v>162.5</v>
       </c>
-      <c r="U33" s="3">
-        <v>9.75</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>11.58333333333333</v>
       </c>
       <c r="X33" s="3">
         <v>0</v>
@@ -3575,45 +3737,51 @@
         <v>0</v>
       </c>
       <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>0</v>
-      </c>
       <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="3">
         <v>2916.666666666667</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AG33" s="3">
         <v>170.8333333333333</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AH33" s="3">
         <v>314.625</v>
       </c>
-      <c r="AG33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="3">
-        <v>0</v>
-      </c>
       <c r="AI33" s="3">
         <v>0</v>
       </c>
       <c r="AJ33" s="3">
-        <v>4208.958333333333</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="3">
-        <v>30.41666666667516</v>
+        <v>0</v>
+      </c>
+      <c r="AL33" s="3">
+        <v>4201.625</v>
+      </c>
+      <c r="AM33" s="3">
+        <v>52.08333333334122</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:39">
       <c r="A34" s="2">
         <v>45382</v>
       </c>
       <c r="B34" s="3">
-        <v>30.41666666667516</v>
+        <v>52.08333333334122</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
@@ -3664,19 +3832,19 @@
         <v>0</v>
       </c>
       <c r="S34" s="3">
-        <v>385.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>376.25</v>
+      </c>
+      <c r="V34" s="3">
         <v>162.5</v>
       </c>
-      <c r="U34" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="V34" s="3">
-        <v>0</v>
-      </c>
       <c r="W34" s="3">
-        <v>0</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="X34" s="3">
         <v>0</v>
@@ -3688,45 +3856,51 @@
         <v>0</v>
       </c>
       <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB34" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="3">
-        <v>0</v>
-      </c>
       <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="3">
         <v>2916.666666666667</v>
       </c>
-      <c r="AE34" s="3">
+      <c r="AG34" s="3">
         <v>170.8333333333333</v>
       </c>
-      <c r="AF34" s="3">
+      <c r="AH34" s="3">
         <v>314.625</v>
       </c>
-      <c r="AG34" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="3">
-        <v>0</v>
-      </c>
       <c r="AI34" s="3">
         <v>0</v>
       </c>
       <c r="AJ34" s="3">
-        <v>4222.958333333333</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="3">
-        <v>7.458333333342125</v>
+        <v>0</v>
+      </c>
+      <c r="AL34" s="3">
+        <v>4215.625</v>
+      </c>
+      <c r="AM34" s="3">
+        <v>36.45833333334122</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:39">
       <c r="A35" s="2">
         <v>45412</v>
       </c>
       <c r="B35" s="3">
-        <v>7.458333333342125</v>
+        <v>36.45833333334122</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
@@ -3735,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>3300</v>
+        <v>5500</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -3765,81 +3939,87 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>24300</v>
+        <v>26500</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
       <c r="S35" s="3">
-        <v>402.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>393.75</v>
+      </c>
+      <c r="V35" s="3">
         <v>162.5</v>
       </c>
-      <c r="U35" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>4.583333333333334</v>
       </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="Y35" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="Z35" s="3">
         <v>0</v>
       </c>
       <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>0</v>
-      </c>
       <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="3">
         <v>2916.666666666667</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AG35" s="3">
         <v>170.8333333333333</v>
       </c>
-      <c r="AF35" s="3">
+      <c r="AH35" s="3">
         <v>314.625</v>
       </c>
-      <c r="AG35" s="3">
+      <c r="AI35" s="3">
         <v>1454</v>
       </c>
-      <c r="AH35" s="3">
+      <c r="AJ35" s="3">
         <v>6889</v>
       </c>
-      <c r="AI35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="3">
-        <v>14829.95833333333</v>
-      </c>
       <c r="AK35" s="3">
-        <v>9477.500000000011</v>
+        <v>0</v>
+      </c>
+      <c r="AL35" s="3">
+        <v>16922.625</v>
+      </c>
+      <c r="AM35" s="3">
+        <v>9613.833333333343</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:39">
       <c r="A36" s="2">
         <v>45443</v>
       </c>
       <c r="B36" s="3">
-        <v>9477.500000000011</v>
+        <v>9613.833333333343</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -3905,23 +4085,23 @@
         <v>0</v>
       </c>
       <c r="X36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="3">
         <v>450</v>
       </c>
-      <c r="Y36" s="3">
+      <c r="AA36" s="3">
         <v>150</v>
       </c>
-      <c r="Z36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="3">
+      <c r="AB36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="3">
-        <v>0</v>
-      </c>
       <c r="AD36" s="3">
         <v>0</v>
       </c>
@@ -3941,18 +4121,24 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="3">
         <v>866.6666666666667</v>
       </c>
-      <c r="AK36" s="3">
-        <v>9610.833333333345</v>
+      <c r="AM36" s="3">
+        <v>9747.166666666677</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:39">
       <c r="A37" s="2">
         <v>45473</v>
       </c>
       <c r="B37" s="3">
-        <v>9610.833333333345</v>
+        <v>9747.166666666677</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
@@ -4018,23 +4204,23 @@
         <v>0</v>
       </c>
       <c r="X37" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="3">
         <v>450</v>
       </c>
-      <c r="Y37" s="3">
+      <c r="AA37" s="3">
         <v>150</v>
       </c>
-      <c r="Z37" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="3">
+      <c r="AB37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB37" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="3">
-        <v>0</v>
-      </c>
       <c r="AD37" s="3">
         <v>0</v>
       </c>
@@ -4054,18 +4240,24 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="3">
         <v>866.6666666666667</v>
       </c>
-      <c r="AK37" s="3">
-        <v>9744.166666666679</v>
+      <c r="AM37" s="3">
+        <v>9880.500000000011</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:39">
       <c r="A38" s="2">
         <v>45504</v>
       </c>
       <c r="B38" s="3">
-        <v>9744.166666666679</v>
+        <v>9880.500000000011</v>
       </c>
       <c r="C38" s="3">
         <v>0</v>
@@ -4131,23 +4323,23 @@
         <v>0</v>
       </c>
       <c r="X38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="3">
         <v>450</v>
       </c>
-      <c r="Y38" s="3">
+      <c r="AA38" s="3">
         <v>150</v>
       </c>
-      <c r="Z38" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="3">
+      <c r="AB38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB38" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="3">
-        <v>0</v>
-      </c>
       <c r="AD38" s="3">
         <v>0</v>
       </c>
@@ -4167,18 +4359,24 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="3">
         <v>866.6666666666667</v>
       </c>
-      <c r="AK38" s="3">
-        <v>9877.500000000013</v>
+      <c r="AM38" s="3">
+        <v>10013.83333333334</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:39">
       <c r="A39" s="2">
         <v>45535</v>
       </c>
       <c r="B39" s="3">
-        <v>9877.500000000013</v>
+        <v>10013.83333333334</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
@@ -4244,23 +4442,23 @@
         <v>0</v>
       </c>
       <c r="X39" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="3">
         <v>450</v>
       </c>
-      <c r="Y39" s="3">
+      <c r="AA39" s="3">
         <v>150</v>
       </c>
-      <c r="Z39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="3">
+      <c r="AB39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="3">
         <v>266.6666666666667</v>
       </c>
-      <c r="AB39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="3">
-        <v>0</v>
-      </c>
       <c r="AD39" s="3">
         <v>0</v>
       </c>
@@ -4280,18 +4478,24 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="3">
         <v>866.6666666666667</v>
       </c>
-      <c r="AK39" s="3">
-        <v>10010.83333333335</v>
+      <c r="AM39" s="3">
+        <v>10147.16666666668</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:39">
       <c r="A40" s="2">
         <v>45565</v>
       </c>
       <c r="B40" s="3">
-        <v>10010.83333333335</v>
+        <v>10147.16666666668</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
@@ -4363,16 +4567,16 @@
         <v>0</v>
       </c>
       <c r="Z40" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA40" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB40" s="3">
         <v>0</v>
       </c>
       <c r="AC40" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD40" s="3">
         <v>0</v>
@@ -4396,15 +4600,21 @@
         <v>0</v>
       </c>
       <c r="AK40" s="3">
-        <v>11010.83333333335</v>
+        <v>0</v>
+      </c>
+      <c r="AL40" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM40" s="3">
+        <v>10280.50000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:39">
       <c r="A41" s="2">
         <v>45596</v>
       </c>
       <c r="B41" s="3">
-        <v>11010.83333333335</v>
+        <v>10280.50000000001</v>
       </c>
       <c r="C41" s="3">
         <v>0</v>
@@ -4476,16 +4686,16 @@
         <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA41" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
       </c>
       <c r="AC41" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD41" s="3">
         <v>0</v>
@@ -4509,15 +4719,21 @@
         <v>0</v>
       </c>
       <c r="AK41" s="3">
-        <v>12010.83333333335</v>
+        <v>0</v>
+      </c>
+      <c r="AL41" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM41" s="3">
+        <v>10413.83333333335</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:39">
       <c r="A42" s="2">
         <v>45626</v>
       </c>
       <c r="B42" s="3">
-        <v>12010.83333333335</v>
+        <v>10413.83333333335</v>
       </c>
       <c r="C42" s="3">
         <v>0</v>
@@ -4589,16 +4805,16 @@
         <v>0</v>
       </c>
       <c r="Z42" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA42" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB42" s="3">
         <v>0</v>
       </c>
       <c r="AC42" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD42" s="3">
         <v>0</v>
@@ -4622,15 +4838,21 @@
         <v>0</v>
       </c>
       <c r="AK42" s="3">
-        <v>13010.83333333335</v>
+        <v>0</v>
+      </c>
+      <c r="AL42" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM42" s="3">
+        <v>10547.16666666668</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:39">
       <c r="A43" s="2">
         <v>45657</v>
       </c>
       <c r="B43" s="3">
-        <v>13010.83333333335</v>
+        <v>10547.16666666668</v>
       </c>
       <c r="C43" s="3">
         <v>0</v>
@@ -4702,16 +4924,16 @@
         <v>0</v>
       </c>
       <c r="Z43" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA43" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
       </c>
       <c r="AC43" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD43" s="3">
         <v>0</v>
@@ -4735,15 +4957,21 @@
         <v>0</v>
       </c>
       <c r="AK43" s="3">
-        <v>14010.83333333335</v>
+        <v>0</v>
+      </c>
+      <c r="AL43" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM43" s="3">
+        <v>10680.50000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:39">
       <c r="A44" s="2">
         <v>45688</v>
       </c>
       <c r="B44" s="3">
-        <v>14010.83333333335</v>
+        <v>10680.50000000001</v>
       </c>
       <c r="C44" s="3">
         <v>0</v>
@@ -4815,16 +5043,16 @@
         <v>0</v>
       </c>
       <c r="Z44" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA44" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB44" s="3">
         <v>0</v>
       </c>
       <c r="AC44" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD44" s="3">
         <v>0</v>
@@ -4848,15 +5076,21 @@
         <v>0</v>
       </c>
       <c r="AK44" s="3">
-        <v>15010.83333333335</v>
+        <v>0</v>
+      </c>
+      <c r="AL44" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM44" s="3">
+        <v>10813.83333333335</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:39">
       <c r="A45" s="2">
         <v>45716</v>
       </c>
       <c r="B45" s="3">
-        <v>15010.83333333335</v>
+        <v>10813.83333333335</v>
       </c>
       <c r="C45" s="3">
         <v>0</v>
@@ -4928,16 +5162,16 @@
         <v>0</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA45" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB45" s="3">
         <v>0</v>
       </c>
       <c r="AC45" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD45" s="3">
         <v>0</v>
@@ -4961,15 +5195,21 @@
         <v>0</v>
       </c>
       <c r="AK45" s="3">
-        <v>16010.83333333335</v>
+        <v>0</v>
+      </c>
+      <c r="AL45" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM45" s="3">
+        <v>10947.16666666668</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:39">
       <c r="A46" s="2">
         <v>45747</v>
       </c>
       <c r="B46" s="3">
-        <v>16010.83333333335</v>
+        <v>10947.16666666668</v>
       </c>
       <c r="C46" s="3">
         <v>0</v>
@@ -5041,16 +5281,16 @@
         <v>0</v>
       </c>
       <c r="Z46" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA46" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB46" s="3">
         <v>0</v>
       </c>
       <c r="AC46" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD46" s="3">
         <v>0</v>
@@ -5074,15 +5314,21 @@
         <v>0</v>
       </c>
       <c r="AK46" s="3">
-        <v>17010.83333333335</v>
+        <v>0</v>
+      </c>
+      <c r="AL46" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM46" s="3">
+        <v>11080.50000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:39">
       <c r="A47" s="2">
         <v>45777</v>
       </c>
       <c r="B47" s="3">
-        <v>17010.83333333335</v>
+        <v>11080.50000000002</v>
       </c>
       <c r="C47" s="3">
         <v>0</v>
@@ -5154,16 +5400,16 @@
         <v>0</v>
       </c>
       <c r="Z47" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA47" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB47" s="3">
         <v>0</v>
       </c>
       <c r="AC47" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD47" s="3">
         <v>0</v>
@@ -5187,15 +5433,21 @@
         <v>0</v>
       </c>
       <c r="AK47" s="3">
-        <v>18025.83333333335</v>
+        <v>0</v>
+      </c>
+      <c r="AL47" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM47" s="3">
+        <v>11228.83333333335</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:39">
       <c r="A48" s="2">
         <v>45808</v>
       </c>
       <c r="B48" s="3">
-        <v>18025.83333333335</v>
+        <v>11228.83333333335</v>
       </c>
       <c r="C48" s="3">
         <v>0</v>
@@ -5267,16 +5519,16 @@
         <v>0</v>
       </c>
       <c r="Z48" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA48" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB48" s="3">
         <v>0</v>
       </c>
       <c r="AC48" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD48" s="3">
         <v>0</v>
@@ -5300,15 +5552,21 @@
         <v>0</v>
       </c>
       <c r="AK48" s="3">
-        <v>19040.83333333335</v>
+        <v>0</v>
+      </c>
+      <c r="AL48" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM48" s="3">
+        <v>11377.16666666668</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:39">
       <c r="A49" s="2">
         <v>45838</v>
       </c>
       <c r="B49" s="3">
-        <v>19040.83333333335</v>
+        <v>11377.16666666668</v>
       </c>
       <c r="C49" s="3">
         <v>0</v>
@@ -5380,16 +5638,16 @@
         <v>0</v>
       </c>
       <c r="Z49" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA49" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB49" s="3">
         <v>0</v>
       </c>
       <c r="AC49" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD49" s="3">
         <v>0</v>
@@ -5413,15 +5671,21 @@
         <v>0</v>
       </c>
       <c r="AK49" s="3">
-        <v>20055.83333333335</v>
+        <v>0</v>
+      </c>
+      <c r="AL49" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM49" s="3">
+        <v>11525.50000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:39">
       <c r="A50" s="2">
         <v>45869</v>
       </c>
       <c r="B50" s="3">
-        <v>20055.83333333335</v>
+        <v>11525.50000000002</v>
       </c>
       <c r="C50" s="3">
         <v>0</v>
@@ -5493,16 +5757,16 @@
         <v>0</v>
       </c>
       <c r="Z50" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA50" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB50" s="3">
         <v>0</v>
       </c>
       <c r="AC50" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD50" s="3">
         <v>0</v>
@@ -5526,15 +5790,21 @@
         <v>0</v>
       </c>
       <c r="AK50" s="3">
-        <v>21070.83333333335</v>
+        <v>0</v>
+      </c>
+      <c r="AL50" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM50" s="3">
+        <v>11673.83333333335</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:39">
       <c r="A51" s="2">
         <v>45900</v>
       </c>
       <c r="B51" s="3">
-        <v>21070.83333333335</v>
+        <v>11673.83333333335</v>
       </c>
       <c r="C51" s="3">
         <v>0</v>
@@ -5606,16 +5876,16 @@
         <v>0</v>
       </c>
       <c r="Z51" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA51" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB51" s="3">
         <v>0</v>
       </c>
       <c r="AC51" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD51" s="3">
         <v>0</v>
@@ -5639,15 +5909,21 @@
         <v>0</v>
       </c>
       <c r="AK51" s="3">
-        <v>22085.83333333335</v>
+        <v>0</v>
+      </c>
+      <c r="AL51" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM51" s="3">
+        <v>11822.16666666669</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:39">
       <c r="A52" s="2">
         <v>45930</v>
       </c>
       <c r="B52" s="3">
-        <v>22085.83333333335</v>
+        <v>11822.16666666669</v>
       </c>
       <c r="C52" s="3">
         <v>0</v>
@@ -5719,16 +5995,16 @@
         <v>0</v>
       </c>
       <c r="Z52" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA52" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB52" s="3">
         <v>0</v>
       </c>
       <c r="AC52" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD52" s="3">
         <v>0</v>
@@ -5752,15 +6028,21 @@
         <v>0</v>
       </c>
       <c r="AK52" s="3">
-        <v>23100.83333333335</v>
+        <v>0</v>
+      </c>
+      <c r="AL52" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM52" s="3">
+        <v>11970.50000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:39">
       <c r="A53" s="2">
         <v>45961</v>
       </c>
       <c r="B53" s="3">
-        <v>23100.83333333335</v>
+        <v>11970.50000000002</v>
       </c>
       <c r="C53" s="3">
         <v>0</v>
@@ -5832,16 +6114,16 @@
         <v>0</v>
       </c>
       <c r="Z53" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA53" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB53" s="3">
         <v>0</v>
       </c>
       <c r="AC53" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD53" s="3">
         <v>0</v>
@@ -5865,15 +6147,21 @@
         <v>0</v>
       </c>
       <c r="AK53" s="3">
-        <v>24115.83333333335</v>
+        <v>0</v>
+      </c>
+      <c r="AL53" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM53" s="3">
+        <v>12118.83333333335</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:39">
       <c r="A54" s="2">
         <v>45991</v>
       </c>
       <c r="B54" s="3">
-        <v>24115.83333333335</v>
+        <v>12118.83333333335</v>
       </c>
       <c r="C54" s="3">
         <v>0</v>
@@ -5945,16 +6233,16 @@
         <v>0</v>
       </c>
       <c r="Z54" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA54" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB54" s="3">
         <v>0</v>
       </c>
       <c r="AC54" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD54" s="3">
         <v>0</v>
@@ -5978,15 +6266,21 @@
         <v>0</v>
       </c>
       <c r="AK54" s="3">
-        <v>25130.83333333335</v>
+        <v>0</v>
+      </c>
+      <c r="AL54" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM54" s="3">
+        <v>12267.16666666669</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:39">
       <c r="A55" s="2">
         <v>46022</v>
       </c>
       <c r="B55" s="3">
-        <v>25130.83333333335</v>
+        <v>12267.16666666669</v>
       </c>
       <c r="C55" s="3">
         <v>0</v>
@@ -6058,16 +6352,16 @@
         <v>0</v>
       </c>
       <c r="Z55" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA55" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB55" s="3">
         <v>0</v>
       </c>
       <c r="AC55" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD55" s="3">
         <v>0</v>
@@ -6091,15 +6385,21 @@
         <v>0</v>
       </c>
       <c r="AK55" s="3">
-        <v>26145.83333333335</v>
+        <v>0</v>
+      </c>
+      <c r="AL55" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM55" s="3">
+        <v>12415.50000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:39">
       <c r="A56" s="2">
         <v>46053</v>
       </c>
       <c r="B56" s="3">
-        <v>26145.83333333335</v>
+        <v>12415.50000000002</v>
       </c>
       <c r="C56" s="3">
         <v>0</v>
@@ -6171,16 +6471,16 @@
         <v>0</v>
       </c>
       <c r="Z56" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA56" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB56" s="3">
         <v>0</v>
       </c>
       <c r="AC56" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD56" s="3">
         <v>0</v>
@@ -6204,15 +6504,21 @@
         <v>0</v>
       </c>
       <c r="AK56" s="3">
-        <v>27160.83333333335</v>
+        <v>0</v>
+      </c>
+      <c r="AL56" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM56" s="3">
+        <v>12563.83333333336</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:39">
       <c r="A57" s="2">
         <v>46081</v>
       </c>
       <c r="B57" s="3">
-        <v>27160.83333333335</v>
+        <v>12563.83333333336</v>
       </c>
       <c r="C57" s="3">
         <v>0</v>
@@ -6284,16 +6590,16 @@
         <v>0</v>
       </c>
       <c r="Z57" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA57" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB57" s="3">
         <v>0</v>
       </c>
       <c r="AC57" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD57" s="3">
         <v>0</v>
@@ -6317,15 +6623,21 @@
         <v>0</v>
       </c>
       <c r="AK57" s="3">
-        <v>28175.83333333335</v>
+        <v>0</v>
+      </c>
+      <c r="AL57" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM57" s="3">
+        <v>12712.16666666669</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:39">
       <c r="A58" s="2">
         <v>46112</v>
       </c>
       <c r="B58" s="3">
-        <v>28175.83333333335</v>
+        <v>12712.16666666669</v>
       </c>
       <c r="C58" s="3">
         <v>0</v>
@@ -6397,16 +6709,16 @@
         <v>0</v>
       </c>
       <c r="Z58" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA58" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB58" s="3">
         <v>0</v>
       </c>
       <c r="AC58" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD58" s="3">
         <v>0</v>
@@ -6430,15 +6742,21 @@
         <v>0</v>
       </c>
       <c r="AK58" s="3">
-        <v>29190.83333333335</v>
+        <v>0</v>
+      </c>
+      <c r="AL58" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM58" s="3">
+        <v>12860.50000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:39">
       <c r="A59" s="2">
         <v>46142</v>
       </c>
       <c r="B59" s="3">
-        <v>29190.83333333335</v>
+        <v>12860.50000000002</v>
       </c>
       <c r="C59" s="3">
         <v>0</v>
@@ -6510,16 +6828,16 @@
         <v>0</v>
       </c>
       <c r="Z59" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA59" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB59" s="3">
         <v>0</v>
       </c>
       <c r="AC59" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD59" s="3">
         <v>0</v>
@@ -6543,15 +6861,21 @@
         <v>0</v>
       </c>
       <c r="AK59" s="3">
-        <v>30221.05833333335</v>
+        <v>0</v>
+      </c>
+      <c r="AL59" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM59" s="3">
+        <v>13024.05833333336</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:39">
       <c r="A60" s="2">
         <v>46173</v>
       </c>
       <c r="B60" s="3">
-        <v>30221.05833333335</v>
+        <v>13024.05833333336</v>
       </c>
       <c r="C60" s="3">
         <v>0</v>
@@ -6623,16 +6947,16 @@
         <v>0</v>
       </c>
       <c r="Z60" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA60" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB60" s="3">
         <v>0</v>
       </c>
       <c r="AC60" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD60" s="3">
         <v>0</v>
@@ -6656,15 +6980,21 @@
         <v>0</v>
       </c>
       <c r="AK60" s="3">
-        <v>31251.28333333334</v>
+        <v>0</v>
+      </c>
+      <c r="AL60" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM60" s="3">
+        <v>13187.61666666669</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:39">
       <c r="A61" s="2">
         <v>46203</v>
       </c>
       <c r="B61" s="3">
-        <v>31251.28333333334</v>
+        <v>13187.61666666669</v>
       </c>
       <c r="C61" s="3">
         <v>0</v>
@@ -6736,16 +7066,16 @@
         <v>0</v>
       </c>
       <c r="Z61" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA61" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
       <c r="AC61" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD61" s="3">
         <v>0</v>
@@ -6769,15 +7099,21 @@
         <v>0</v>
       </c>
       <c r="AK61" s="3">
-        <v>32281.50833333334</v>
+        <v>0</v>
+      </c>
+      <c r="AL61" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM61" s="3">
+        <v>13351.17500000003</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:39">
       <c r="A62" s="2">
         <v>46234</v>
       </c>
       <c r="B62" s="3">
-        <v>32281.50833333334</v>
+        <v>13351.17500000003</v>
       </c>
       <c r="C62" s="3">
         <v>0</v>
@@ -6849,16 +7185,16 @@
         <v>0</v>
       </c>
       <c r="Z62" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA62" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB62" s="3">
         <v>0</v>
       </c>
       <c r="AC62" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD62" s="3">
         <v>0</v>
@@ -6882,15 +7218,21 @@
         <v>0</v>
       </c>
       <c r="AK62" s="3">
-        <v>33311.73333333334</v>
+        <v>0</v>
+      </c>
+      <c r="AL62" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM62" s="3">
+        <v>13514.73333333336</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:39">
       <c r="A63" s="2">
         <v>46265</v>
       </c>
       <c r="B63" s="3">
-        <v>33311.73333333334</v>
+        <v>13514.73333333336</v>
       </c>
       <c r="C63" s="3">
         <v>0</v>
@@ -6962,16 +7304,16 @@
         <v>0</v>
       </c>
       <c r="Z63" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA63" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB63" s="3">
         <v>0</v>
       </c>
       <c r="AC63" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD63" s="3">
         <v>0</v>
@@ -6995,15 +7337,21 @@
         <v>0</v>
       </c>
       <c r="AK63" s="3">
-        <v>34341.95833333334</v>
+        <v>0</v>
+      </c>
+      <c r="AL63" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM63" s="3">
+        <v>13678.2916666667</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:39">
       <c r="A64" s="2">
         <v>46295</v>
       </c>
       <c r="B64" s="3">
-        <v>34341.95833333334</v>
+        <v>13678.2916666667</v>
       </c>
       <c r="C64" s="3">
         <v>0</v>
@@ -7075,16 +7423,16 @@
         <v>0</v>
       </c>
       <c r="Z64" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA64" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB64" s="3">
         <v>0</v>
       </c>
       <c r="AC64" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD64" s="3">
         <v>0</v>
@@ -7108,15 +7456,21 @@
         <v>0</v>
       </c>
       <c r="AK64" s="3">
-        <v>35372.18333333334</v>
+        <v>0</v>
+      </c>
+      <c r="AL64" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM64" s="3">
+        <v>13841.85000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:39">
       <c r="A65" s="2">
         <v>46326</v>
       </c>
       <c r="B65" s="3">
-        <v>35372.18333333334</v>
+        <v>13841.85000000003</v>
       </c>
       <c r="C65" s="3">
         <v>0</v>
@@ -7188,16 +7542,16 @@
         <v>0</v>
       </c>
       <c r="Z65" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA65" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB65" s="3">
         <v>0</v>
       </c>
       <c r="AC65" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD65" s="3">
         <v>0</v>
@@ -7221,15 +7575,21 @@
         <v>0</v>
       </c>
       <c r="AK65" s="3">
-        <v>36402.40833333334</v>
+        <v>0</v>
+      </c>
+      <c r="AL65" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM65" s="3">
+        <v>14005.40833333336</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:39">
       <c r="A66" s="2">
         <v>46356</v>
       </c>
       <c r="B66" s="3">
-        <v>36402.40833333334</v>
+        <v>14005.40833333336</v>
       </c>
       <c r="C66" s="3">
         <v>0</v>
@@ -7301,16 +7661,16 @@
         <v>0</v>
       </c>
       <c r="Z66" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA66" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB66" s="3">
         <v>0</v>
       </c>
       <c r="AC66" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD66" s="3">
         <v>0</v>
@@ -7334,15 +7694,21 @@
         <v>0</v>
       </c>
       <c r="AK66" s="3">
-        <v>37432.63333333334</v>
+        <v>0</v>
+      </c>
+      <c r="AL66" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM66" s="3">
+        <v>14168.9666666667</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:39">
       <c r="A67" s="2">
         <v>46387</v>
       </c>
       <c r="B67" s="3">
-        <v>37432.63333333334</v>
+        <v>14168.9666666667</v>
       </c>
       <c r="C67" s="3">
         <v>0</v>
@@ -7414,16 +7780,16 @@
         <v>0</v>
       </c>
       <c r="Z67" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA67" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB67" s="3">
         <v>0</v>
       </c>
       <c r="AC67" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD67" s="3">
         <v>0</v>
@@ -7447,15 +7813,21 @@
         <v>0</v>
       </c>
       <c r="AK67" s="3">
-        <v>38462.85833333334</v>
+        <v>0</v>
+      </c>
+      <c r="AL67" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM67" s="3">
+        <v>14332.52500000003</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:39">
       <c r="A68" s="2">
         <v>46418</v>
       </c>
       <c r="B68" s="3">
-        <v>38462.85833333334</v>
+        <v>14332.52500000003</v>
       </c>
       <c r="C68" s="3">
         <v>0</v>
@@ -7527,16 +7899,16 @@
         <v>0</v>
       </c>
       <c r="Z68" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA68" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB68" s="3">
         <v>0</v>
       </c>
       <c r="AC68" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD68" s="3">
         <v>0</v>
@@ -7560,15 +7932,21 @@
         <v>0</v>
       </c>
       <c r="AK68" s="3">
-        <v>39493.08333333334</v>
+        <v>0</v>
+      </c>
+      <c r="AL68" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM68" s="3">
+        <v>14496.08333333337</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:39">
       <c r="A69" s="2">
         <v>46446</v>
       </c>
       <c r="B69" s="3">
-        <v>39493.08333333334</v>
+        <v>14496.08333333337</v>
       </c>
       <c r="C69" s="3">
         <v>0</v>
@@ -7640,16 +8018,16 @@
         <v>0</v>
       </c>
       <c r="Z69" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA69" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB69" s="3">
         <v>0</v>
       </c>
       <c r="AC69" s="3">
-        <v>0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AD69" s="3">
         <v>0</v>
@@ -7673,15 +8051,21 @@
         <v>0</v>
       </c>
       <c r="AK69" s="3">
-        <v>40523.30833333333</v>
+        <v>0</v>
+      </c>
+      <c r="AL69" s="3">
+        <v>866.6666666666667</v>
+      </c>
+      <c r="AM69" s="3">
+        <v>14659.6416666667</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:39">
       <c r="A70" s="2">
         <v>46477</v>
       </c>
       <c r="B70" s="3">
-        <v>40523.30833333333</v>
+        <v>14659.6416666667</v>
       </c>
       <c r="C70" s="3">
         <v>0</v>
@@ -7753,10 +8137,10 @@
         <v>0</v>
       </c>
       <c r="Z70" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA70" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB70" s="3">
         <v>0</v>
@@ -7786,15 +8170,21 @@
         <v>0</v>
       </c>
       <c r="AK70" s="3">
-        <v>41553.53333333333</v>
+        <v>0</v>
+      </c>
+      <c r="AL70" s="3">
+        <v>600</v>
+      </c>
+      <c r="AM70" s="3">
+        <v>15089.8666666667</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:39">
       <c r="A71" s="2">
         <v>46507</v>
       </c>
       <c r="B71" s="3">
-        <v>41553.53333333333</v>
+        <v>15089.8666666667</v>
       </c>
       <c r="C71" s="3">
         <v>0</v>
@@ -7866,10 +8256,10 @@
         <v>0</v>
       </c>
       <c r="Z71" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA71" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB71" s="3">
         <v>0</v>
@@ -7899,15 +8289,21 @@
         <v>0</v>
       </c>
       <c r="AK71" s="3">
-        <v>42599.21170833334</v>
+        <v>0</v>
+      </c>
+      <c r="AL71" s="3">
+        <v>600</v>
+      </c>
+      <c r="AM71" s="3">
+        <v>15535.5450416667</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:39">
       <c r="A72" s="2">
         <v>46538</v>
       </c>
       <c r="B72" s="3">
-        <v>42599.21170833334</v>
+        <v>15535.5450416667</v>
       </c>
       <c r="C72" s="3">
         <v>0</v>
@@ -7979,10 +8375,10 @@
         <v>0</v>
       </c>
       <c r="Z72" s="3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA72" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB72" s="3">
         <v>0</v>
@@ -8006,12 +8402,18 @@
         <v>0</v>
       </c>
       <c r="AI72" s="3">
-        <v>43644.89008333334</v>
+        <v>0</v>
       </c>
       <c r="AJ72" s="3">
-        <v>43644.89008333334</v>
+        <v>0</v>
       </c>
       <c r="AK72" s="3">
+        <v>15981.2234166667</v>
+      </c>
+      <c r="AL72" s="3">
+        <v>16581.2234166667</v>
+      </c>
+      <c r="AM72" s="3">
         <v>0</v>
       </c>
     </row>
